--- a/REGULAR/OJT/DOGELIO, RONNEL.xlsx
+++ b/REGULAR/OJT/DOGELIO, RONNEL.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EEC3AE-93EF-4820-B3E6-6AAF86F8070F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
   <si>
     <t>PERIOD</t>
   </si>
@@ -235,7 +234,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1098,7 +1097,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1141,7 +1140,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1205,7 +1204,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1265,7 +1264,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1331,7 +1330,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1394,7 +1393,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1492,7 +1491,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1551,7 +1550,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1616,7 +1615,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1659,7 +1658,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1734,7 +1733,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1920,7 +1919,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1986,7 +1985,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2044,7 +2043,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2110,7 +2109,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2166,7 +2165,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +2240,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2284,7 +2283,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2350,7 +2349,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2405,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2504,7 +2503,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2567,7 +2566,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2633,25 +2632,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2663,13 +2662,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2678,14 +2677,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2989,7 +2988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2999,7 +2998,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3007,34 +3006,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane ySplit="1728" topLeftCell="A44" activePane="bottomLeft"/>
+      <pane ySplit="1725" topLeftCell="A44" activePane="bottomLeft"/>
       <selection activeCell="E4" sqref="E4"/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
+      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3055,7 +3054,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3073,7 +3072,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3091,7 +3090,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3099,7 +3098,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3112,7 +3111,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -3129,7 +3128,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3164,7 +3163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3173,7 +3172,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>33.5</v>
+        <v>36</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3183,12 +3182,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>49.5</v>
+        <v>51</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3210,7 +3209,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43709</v>
       </c>
@@ -3230,7 +3229,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>43739</v>
@@ -3251,7 +3250,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f t="shared" ref="A13:A14" si="0">EDATE(A12,1)</f>
         <v>43770</v>
@@ -3272,7 +3271,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" si="0"/>
         <v>43800</v>
@@ -3293,7 +3292,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
         <v>44</v>
       </c>
@@ -3311,7 +3310,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43831</v>
       </c>
@@ -3335,7 +3334,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f>EDATE(A16,1)</f>
         <v>43862</v>
@@ -3358,7 +3357,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>49</v>
@@ -3378,7 +3377,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>45</v>
@@ -3398,7 +3397,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="42">
@@ -3416,7 +3415,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f>EDATE(A17,1)</f>
         <v>43891</v>
@@ -3437,7 +3436,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <f t="shared" ref="A22:A31" si="1">EDATE(A21,1)</f>
         <v>43922</v>
@@ -3458,7 +3457,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <f t="shared" si="1"/>
         <v>43952</v>
@@ -3479,7 +3478,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f t="shared" si="1"/>
         <v>43983</v>
@@ -3500,7 +3499,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f t="shared" si="1"/>
         <v>44013</v>
@@ -3521,7 +3520,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f t="shared" si="1"/>
         <v>44044</v>
@@ -3542,7 +3541,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f t="shared" si="1"/>
         <v>44075</v>
@@ -3567,7 +3566,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="42">
@@ -3585,7 +3584,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f>EDATE(A27,1)</f>
         <v>44105</v>
@@ -3606,7 +3605,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f>EDATE(A29,1)</f>
         <v>44136</v>
@@ -3627,7 +3626,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f t="shared" si="1"/>
         <v>44166</v>
@@ -3652,7 +3651,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
         <v>53</v>
       </c>
@@ -3670,7 +3669,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>44197</v>
       </c>
@@ -3690,7 +3689,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f>EDATE(A33,1)</f>
         <v>44228</v>
@@ -3713,7 +3712,7 @@
         <v>44471</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13">
@@ -3731,7 +3730,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="50"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <f>EDATE(A34,1)</f>
         <v>44256</v>
@@ -3752,7 +3751,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f t="shared" ref="A37:A42" si="2">EDATE(A36,1)</f>
         <v>44287</v>
@@ -3773,7 +3772,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f t="shared" si="2"/>
         <v>44317</v>
@@ -3794,7 +3793,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f t="shared" si="2"/>
         <v>44348</v>
@@ -3815,7 +3814,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f t="shared" si="2"/>
         <v>44378</v>
@@ -3836,7 +3835,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f t="shared" si="2"/>
         <v>44409</v>
@@ -3857,7 +3856,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f t="shared" si="2"/>
         <v>44440</v>
@@ -3878,7 +3877,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f>EDATE(A42,1)</f>
         <v>44470</v>
@@ -3899,7 +3898,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f>EDATE(A43,1)</f>
         <v>44501</v>
@@ -3920,7 +3919,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f t="shared" ref="A45" si="3">EDATE(A44,1)</f>
         <v>44531</v>
@@ -3945,7 +3944,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
         <v>54</v>
       </c>
@@ -3963,7 +3962,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44562</v>
       </c>
@@ -3983,7 +3982,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f>EDATE(A47,1)</f>
         <v>44593</v>
@@ -4004,7 +4003,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <f t="shared" ref="A49:A54" si="4">EDATE(A48,1)</f>
         <v>44621</v>
@@ -4025,7 +4024,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f t="shared" si="4"/>
         <v>44652</v>
@@ -4046,7 +4045,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" si="4"/>
         <v>44682</v>
@@ -4067,7 +4066,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f t="shared" si="4"/>
         <v>44713</v>
@@ -4088,7 +4087,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f>EDATE(A52,1)</f>
         <v>44743</v>
@@ -4109,7 +4108,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f t="shared" si="4"/>
         <v>44774</v>
@@ -4136,7 +4135,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f>EDATE(A54,1)</f>
         <v>44805</v>
@@ -4161,7 +4160,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>45</v>
@@ -4183,7 +4182,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13">
@@ -4201,7 +4200,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44835</v>
       </c>
@@ -4221,7 +4220,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44866</v>
       </c>
@@ -4241,7 +4240,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44896</v>
       </c>
@@ -4267,7 +4266,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
         <v>58</v>
       </c>
@@ -4285,7 +4284,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44927</v>
       </c>
@@ -4311,7 +4310,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>62</v>
@@ -4333,7 +4332,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44958</v>
       </c>
@@ -4359,47 +4358,53 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44986</v>
       </c>
       <c r="B65" s="20"/>
-      <c r="C65" s="13"/>
+      <c r="C65" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D65" s="39"/>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G65" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H65" s="39"/>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>45017</v>
       </c>
       <c r="B66" s="20"/>
-      <c r="C66" s="13"/>
+      <c r="C66" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D66" s="39"/>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G66" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H66" s="39"/>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>45047</v>
       </c>
-      <c r="B67" s="20"/>
+      <c r="B67" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C67" s="13"/>
       <c r="D67" s="39"/>
       <c r="E67" s="9"/>
@@ -4408,12 +4413,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H67" s="39"/>
+      <c r="H67" s="39">
+        <v>1</v>
+      </c>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="20"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K67" s="50">
+        <v>45051</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>45078</v>
       </c>
@@ -4431,7 +4440,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>45108</v>
       </c>
@@ -4449,7 +4458,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>45139</v>
       </c>
@@ -4467,7 +4476,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>45170</v>
       </c>
@@ -4485,7 +4494,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>45200</v>
       </c>
@@ -4503,7 +4512,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>45231</v>
       </c>
@@ -4521,7 +4530,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>45261</v>
       </c>
@@ -4539,7 +4548,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>45292</v>
       </c>
@@ -4557,7 +4566,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>45323</v>
       </c>
@@ -4575,7 +4584,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>45352</v>
       </c>
@@ -4593,7 +4602,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>45383</v>
       </c>
@@ -4611,7 +4620,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45413</v>
       </c>
@@ -4629,7 +4638,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45444</v>
       </c>
@@ -4647,7 +4656,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45474</v>
       </c>
@@ -4665,7 +4674,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45505</v>
       </c>
@@ -4683,7 +4692,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45536</v>
       </c>
@@ -4701,7 +4710,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45566</v>
       </c>
@@ -4719,7 +4728,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4735,7 +4744,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4751,7 +4760,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4767,7 +4776,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4783,7 +4792,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4799,7 +4808,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4815,7 +4824,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4831,7 +4840,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4847,7 +4856,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4863,7 +4872,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4879,7 +4888,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4895,7 +4904,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4911,7 +4920,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4927,7 +4936,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4943,7 +4952,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4959,7 +4968,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4975,7 +4984,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4991,7 +5000,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5007,7 +5016,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5023,7 +5032,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5039,7 +5048,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5055,7 +5064,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5071,7 +5080,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5087,7 +5096,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5103,7 +5112,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5119,7 +5128,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5135,7 +5144,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5151,7 +5160,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5167,7 +5176,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5183,7 +5192,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5199,7 +5208,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5215,7 +5224,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5231,7 +5240,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5247,7 +5256,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5263,7 +5272,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5279,7 +5288,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5295,7 +5304,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5311,7 +5320,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5327,7 +5336,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5343,7 +5352,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5359,7 +5368,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5375,7 +5384,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5391,7 +5400,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5407,7 +5416,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5423,7 +5432,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5439,7 +5448,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5455,7 +5464,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5471,7 +5480,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5487,7 +5496,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5503,7 +5512,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5519,7 +5528,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5535,7 +5544,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5551,7 +5560,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="41"/>
       <c r="B137" s="15"/>
       <c r="C137" s="42"/>
@@ -5582,10 +5591,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5608,7 +5617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -5616,21 +5625,21 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -5643,7 +5652,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5672,7 +5681,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -5692,17 +5701,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5723,7 +5732,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5750,7 +5759,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5776,7 +5785,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5802,7 +5811,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5828,7 +5837,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5854,7 +5863,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5880,7 +5889,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5906,7 +5915,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5932,7 +5941,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5952,7 +5961,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5972,7 +5981,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5992,7 +6001,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6013,7 +6022,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6034,7 +6043,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6055,7 +6064,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6076,7 +6085,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6097,7 +6106,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6118,7 +6127,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6139,7 +6148,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6160,7 +6169,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6181,7 +6190,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6202,7 +6211,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6223,7 +6232,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6244,7 +6253,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6265,7 +6274,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6286,7 +6295,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6307,7 +6316,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6328,7 +6337,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6349,7 +6358,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6370,7 +6379,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6391,7 +6400,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6412,7 +6421,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6421,7 +6430,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6430,7 +6439,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6439,7 +6448,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6448,7 +6457,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6457,7 +6466,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6466,7 +6475,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6475,7 +6484,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6484,7 +6493,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6493,7 +6502,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6502,7 +6511,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6511,7 +6520,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6520,7 +6529,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6529,7 +6538,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6538,7 +6547,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6547,7 +6556,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6556,7 +6565,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6565,7 +6574,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6574,7 +6583,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6583,7 +6592,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6592,7 +6601,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6601,7 +6610,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6610,7 +6619,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6619,7 +6628,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6628,7 +6637,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6637,7 +6646,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6646,7 +6655,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6655,7 +6664,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6664,7 +6673,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6673,7 +6682,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/DOGELIO, RONNEL.xlsx
+++ b/REGULAR/OJT/DOGELIO, RONNEL.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0975E744-B786-4245-8A0D-A2A68359B7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -234,7 +235,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1097,7 +1098,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1140,7 +1141,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1204,7 +1205,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1264,7 +1265,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1330,7 +1331,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1393,7 +1394,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1491,7 +1492,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,7 +1551,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1615,7 +1616,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1658,7 +1659,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1733,7 +1734,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1919,7 +1920,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1985,7 +1986,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2043,7 +2044,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2109,7 +2110,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2165,7 +2166,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2240,7 +2241,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2283,7 +2284,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2349,7 +2350,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2405,7 +2406,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2503,7 +2504,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2566,7 +2567,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2632,25 +2633,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2662,13 +2663,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2677,14 +2678,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2988,7 +2989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2998,7 +2999,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3006,34 +3007,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane ySplit="1725" topLeftCell="A44" activePane="bottomLeft"/>
+      <pane ySplit="1728" topLeftCell="A51" activePane="bottomLeft"/>
       <selection activeCell="E4" sqref="E4"/>
-      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
+      <selection pane="bottomLeft" activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3054,7 +3055,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3072,7 +3073,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3090,7 +3091,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3098,7 +3099,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3111,7 +3112,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -3128,7 +3129,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3163,7 +3164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3182,12 +3183,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3209,7 +3210,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43709</v>
       </c>
@@ -3229,7 +3230,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>43739</v>
@@ -3250,7 +3251,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <f t="shared" ref="A13:A14" si="0">EDATE(A12,1)</f>
         <v>43770</v>
@@ -3271,7 +3272,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <f t="shared" si="0"/>
         <v>43800</v>
@@ -3292,7 +3293,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="48" t="s">
         <v>44</v>
       </c>
@@ -3310,7 +3311,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43831</v>
       </c>
@@ -3327,14 +3328,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H16" s="43"/>
+      <c r="H16" s="43">
+        <v>1</v>
+      </c>
       <c r="I16" s="9"/>
       <c r="J16" s="12"/>
       <c r="K16" s="49" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <f>EDATE(A16,1)</f>
         <v>43862</v>
@@ -3357,7 +3360,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>49</v>
@@ -3377,7 +3380,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>45</v>
@@ -3390,14 +3393,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H19" s="39"/>
+      <c r="H19" s="39">
+        <v>1</v>
+      </c>
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
       <c r="K19" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="42">
@@ -3415,7 +3420,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <f>EDATE(A17,1)</f>
         <v>43891</v>
@@ -3436,7 +3441,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <f t="shared" ref="A22:A31" si="1">EDATE(A21,1)</f>
         <v>43922</v>
@@ -3457,7 +3462,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <f t="shared" si="1"/>
         <v>43952</v>
@@ -3478,7 +3483,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <f t="shared" si="1"/>
         <v>43983</v>
@@ -3499,7 +3504,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <f t="shared" si="1"/>
         <v>44013</v>
@@ -3520,7 +3525,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <f t="shared" si="1"/>
         <v>44044</v>
@@ -3541,7 +3546,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <f t="shared" si="1"/>
         <v>44075</v>
@@ -3566,7 +3571,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="42">
@@ -3584,7 +3589,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <f>EDATE(A27,1)</f>
         <v>44105</v>
@@ -3605,7 +3610,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <f>EDATE(A29,1)</f>
         <v>44136</v>
@@ -3626,7 +3631,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <f t="shared" si="1"/>
         <v>44166</v>
@@ -3651,7 +3656,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="48" t="s">
         <v>53</v>
       </c>
@@ -3669,7 +3674,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>44197</v>
       </c>
@@ -3689,7 +3694,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <f>EDATE(A33,1)</f>
         <v>44228</v>
@@ -3712,7 +3717,7 @@
         <v>44471</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13">
@@ -3730,7 +3735,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="50"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <f>EDATE(A34,1)</f>
         <v>44256</v>
@@ -3751,7 +3756,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <f t="shared" ref="A37:A42" si="2">EDATE(A36,1)</f>
         <v>44287</v>
@@ -3772,7 +3777,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <f t="shared" si="2"/>
         <v>44317</v>
@@ -3793,7 +3798,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <f t="shared" si="2"/>
         <v>44348</v>
@@ -3814,7 +3819,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f t="shared" si="2"/>
         <v>44378</v>
@@ -3835,7 +3840,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <f t="shared" si="2"/>
         <v>44409</v>
@@ -3856,7 +3861,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f t="shared" si="2"/>
         <v>44440</v>
@@ -3877,7 +3882,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <f>EDATE(A42,1)</f>
         <v>44470</v>
@@ -3898,7 +3903,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f>EDATE(A43,1)</f>
         <v>44501</v>
@@ -3919,7 +3924,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <f t="shared" ref="A45" si="3">EDATE(A44,1)</f>
         <v>44531</v>
@@ -3944,7 +3949,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="48" t="s">
         <v>54</v>
       </c>
@@ -3962,7 +3967,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44562</v>
       </c>
@@ -3982,7 +3987,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <f>EDATE(A47,1)</f>
         <v>44593</v>
@@ -4003,7 +4008,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <f t="shared" ref="A49:A54" si="4">EDATE(A48,1)</f>
         <v>44621</v>
@@ -4024,7 +4029,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f t="shared" si="4"/>
         <v>44652</v>
@@ -4045,7 +4050,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <f t="shared" si="4"/>
         <v>44682</v>
@@ -4066,7 +4071,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f t="shared" si="4"/>
         <v>44713</v>
@@ -4087,7 +4092,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <f>EDATE(A52,1)</f>
         <v>44743</v>
@@ -4108,7 +4113,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f t="shared" si="4"/>
         <v>44774</v>
@@ -4135,7 +4140,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <f>EDATE(A54,1)</f>
         <v>44805</v>
@@ -4160,7 +4165,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>45</v>
@@ -4182,7 +4187,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13">
@@ -4200,7 +4205,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44835</v>
       </c>
@@ -4220,7 +4225,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44866</v>
       </c>
@@ -4240,7 +4245,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44896</v>
       </c>
@@ -4266,7 +4271,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="48" t="s">
         <v>58</v>
       </c>
@@ -4284,7 +4289,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44927</v>
       </c>
@@ -4310,7 +4315,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>62</v>
@@ -4332,7 +4337,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44958</v>
       </c>
@@ -4358,7 +4363,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44986</v>
       </c>
@@ -4378,7 +4383,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>45017</v>
       </c>
@@ -4398,7 +4403,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>45047</v>
       </c>
@@ -4422,7 +4427,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>45078</v>
       </c>
@@ -4440,7 +4445,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>45108</v>
       </c>
@@ -4458,7 +4463,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>45139</v>
       </c>
@@ -4476,7 +4481,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>45170</v>
       </c>
@@ -4494,7 +4499,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>45200</v>
       </c>
@@ -4512,7 +4517,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>45231</v>
       </c>
@@ -4530,7 +4535,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>45261</v>
       </c>
@@ -4548,7 +4553,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>45292</v>
       </c>
@@ -4566,7 +4571,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>45323</v>
       </c>
@@ -4584,7 +4589,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>45352</v>
       </c>
@@ -4602,7 +4607,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>45383</v>
       </c>
@@ -4620,7 +4625,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>45413</v>
       </c>
@@ -4638,7 +4643,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>45444</v>
       </c>
@@ -4656,7 +4661,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>45474</v>
       </c>
@@ -4674,7 +4679,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>45505</v>
       </c>
@@ -4692,7 +4697,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>45536</v>
       </c>
@@ -4710,7 +4715,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>45566</v>
       </c>
@@ -4728,7 +4733,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4744,7 +4749,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4760,7 +4765,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4776,7 +4781,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4792,7 +4797,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4808,7 +4813,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4824,7 +4829,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4840,7 +4845,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4856,7 +4861,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4872,7 +4877,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4888,7 +4893,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4904,7 +4909,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4920,7 +4925,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4936,7 +4941,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4952,7 +4957,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4968,7 +4973,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4984,7 +4989,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5000,7 +5005,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5016,7 +5021,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5032,7 +5037,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5048,7 +5053,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5064,7 +5069,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5080,7 +5085,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5096,7 +5101,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5112,7 +5117,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5128,7 +5133,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5144,7 +5149,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5160,7 +5165,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5176,7 +5181,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5192,7 +5197,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5208,7 +5213,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5224,7 +5229,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5240,7 +5245,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5256,7 +5261,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5272,7 +5277,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5288,7 +5293,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5304,7 +5309,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5320,7 +5325,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5336,7 +5341,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5352,7 +5357,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5368,7 +5373,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5384,7 +5389,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5400,7 +5405,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5416,7 +5421,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5432,7 +5437,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5448,7 +5453,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5464,7 +5469,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5480,7 +5485,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5496,7 +5501,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5512,7 +5517,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5528,7 +5533,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5544,7 +5549,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5560,7 +5565,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="41"/>
       <c r="B137" s="15"/>
       <c r="C137" s="42"/>
@@ -5591,10 +5596,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5617,7 +5622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -5625,21 +5630,21 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -5652,7 +5657,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5681,7 +5686,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -5701,17 +5706,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5732,7 +5737,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5759,7 +5764,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5785,7 +5790,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5811,7 +5816,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5837,7 +5842,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5863,7 +5868,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5889,7 +5894,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5915,7 +5920,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5941,7 +5946,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5961,7 +5966,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5981,7 +5986,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6001,7 +6006,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6022,7 +6027,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6043,7 +6048,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6064,7 +6069,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6085,7 +6090,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6106,7 +6111,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6127,7 +6132,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6148,7 +6153,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6169,7 +6174,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6190,7 +6195,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6211,7 +6216,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6232,7 +6237,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6253,7 +6258,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6274,7 +6279,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6295,7 +6300,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6316,7 +6321,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6337,7 +6342,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6358,7 +6363,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6379,7 +6384,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6400,7 +6405,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6421,7 +6426,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6430,7 +6435,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6439,7 +6444,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6448,7 +6453,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6457,7 +6462,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6466,7 +6471,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6475,7 +6480,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6484,7 +6489,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6493,7 +6498,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6502,7 +6507,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6511,7 +6516,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6520,7 +6525,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6529,7 +6534,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6538,7 +6543,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6547,7 +6552,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6556,7 +6561,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6565,7 +6570,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6574,7 +6579,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6583,7 +6588,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6592,7 +6597,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6601,7 +6606,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6610,7 +6615,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6619,7 +6624,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6628,7 +6633,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6637,7 +6642,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6646,7 +6651,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6655,7 +6660,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6664,7 +6669,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6673,7 +6678,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6682,7 +6687,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/DOGELIO, RONNEL.xlsx
+++ b/REGULAR/OJT/DOGELIO, RONNEL.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0975E744-B786-4245-8A0D-A2A68359B7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>PERIOD</t>
   </si>
@@ -235,7 +234,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1098,7 +1097,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1141,7 +1140,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1205,7 +1204,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1265,7 +1264,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1331,7 +1330,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1394,7 +1393,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1492,7 +1491,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1551,7 +1550,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1616,7 +1615,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1659,7 +1658,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1734,7 +1733,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1920,7 +1919,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1986,7 +1985,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2044,7 +2043,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2110,7 +2109,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2166,7 +2165,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +2240,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2284,7 +2283,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2350,7 +2349,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2405,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2504,7 +2503,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2567,7 +2566,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2633,25 +2632,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K138" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2663,13 +2662,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2678,14 +2677,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2989,7 +2988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2999,7 +2998,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3007,34 +3006,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K137"/>
+  <dimension ref="A2:K138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane ySplit="1728" topLeftCell="A51" activePane="bottomLeft"/>
+      <pane ySplit="1725" topLeftCell="A51" activePane="bottomLeft"/>
       <selection activeCell="E4" sqref="E4"/>
-      <selection pane="bottomLeft" activeCell="H67" sqref="H67"/>
+      <selection pane="bottomLeft" activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3055,7 +3054,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3073,7 +3072,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3091,7 +3090,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3099,7 +3098,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3112,7 +3111,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -3129,7 +3128,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3164,7 +3163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3173,7 +3172,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>36</v>
+        <v>37.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3183,12 +3182,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>49</v>
+        <v>48.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3210,7 +3209,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43709</v>
       </c>
@@ -3230,7 +3229,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>43739</v>
@@ -3251,7 +3250,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f t="shared" ref="A13:A14" si="0">EDATE(A12,1)</f>
         <v>43770</v>
@@ -3272,7 +3271,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" si="0"/>
         <v>43800</v>
@@ -3293,7 +3292,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
         <v>44</v>
       </c>
@@ -3311,7 +3310,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43831</v>
       </c>
@@ -3337,7 +3336,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f>EDATE(A16,1)</f>
         <v>43862</v>
@@ -3360,7 +3359,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>49</v>
@@ -3380,7 +3379,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>45</v>
@@ -3402,7 +3401,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="42">
@@ -3420,7 +3419,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f>EDATE(A17,1)</f>
         <v>43891</v>
@@ -3441,7 +3440,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <f t="shared" ref="A22:A31" si="1">EDATE(A21,1)</f>
         <v>43922</v>
@@ -3462,7 +3461,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <f t="shared" si="1"/>
         <v>43952</v>
@@ -3483,7 +3482,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f t="shared" si="1"/>
         <v>43983</v>
@@ -3504,7 +3503,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f t="shared" si="1"/>
         <v>44013</v>
@@ -3525,7 +3524,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f t="shared" si="1"/>
         <v>44044</v>
@@ -3546,7 +3545,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f t="shared" si="1"/>
         <v>44075</v>
@@ -3571,7 +3570,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="42">
@@ -3589,7 +3588,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f>EDATE(A27,1)</f>
         <v>44105</v>
@@ -3610,7 +3609,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f>EDATE(A29,1)</f>
         <v>44136</v>
@@ -3631,7 +3630,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f t="shared" si="1"/>
         <v>44166</v>
@@ -3656,7 +3655,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
         <v>53</v>
       </c>
@@ -3674,7 +3673,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>44197</v>
       </c>
@@ -3694,7 +3693,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f>EDATE(A33,1)</f>
         <v>44228</v>
@@ -3717,7 +3716,7 @@
         <v>44471</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13">
@@ -3735,7 +3734,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="50"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <f>EDATE(A34,1)</f>
         <v>44256</v>
@@ -3756,7 +3755,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f t="shared" ref="A37:A42" si="2">EDATE(A36,1)</f>
         <v>44287</v>
@@ -3777,7 +3776,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f t="shared" si="2"/>
         <v>44317</v>
@@ -3798,7 +3797,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f t="shared" si="2"/>
         <v>44348</v>
@@ -3819,7 +3818,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f t="shared" si="2"/>
         <v>44378</v>
@@ -3840,7 +3839,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f t="shared" si="2"/>
         <v>44409</v>
@@ -3861,7 +3860,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f t="shared" si="2"/>
         <v>44440</v>
@@ -3882,7 +3881,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f>EDATE(A42,1)</f>
         <v>44470</v>
@@ -3903,7 +3902,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f>EDATE(A43,1)</f>
         <v>44501</v>
@@ -3924,7 +3923,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f t="shared" ref="A45" si="3">EDATE(A44,1)</f>
         <v>44531</v>
@@ -3949,7 +3948,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
         <v>54</v>
       </c>
@@ -3967,7 +3966,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44562</v>
       </c>
@@ -3987,7 +3986,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f>EDATE(A47,1)</f>
         <v>44593</v>
@@ -4008,7 +4007,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <f t="shared" ref="A49:A54" si="4">EDATE(A48,1)</f>
         <v>44621</v>
@@ -4029,7 +4028,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f t="shared" si="4"/>
         <v>44652</v>
@@ -4050,7 +4049,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" si="4"/>
         <v>44682</v>
@@ -4071,7 +4070,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f t="shared" si="4"/>
         <v>44713</v>
@@ -4092,7 +4091,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f>EDATE(A52,1)</f>
         <v>44743</v>
@@ -4113,7 +4112,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f t="shared" si="4"/>
         <v>44774</v>
@@ -4140,7 +4139,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f>EDATE(A54,1)</f>
         <v>44805</v>
@@ -4165,7 +4164,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>45</v>
@@ -4187,7 +4186,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13">
@@ -4205,7 +4204,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44835</v>
       </c>
@@ -4225,7 +4224,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44866</v>
       </c>
@@ -4245,7 +4244,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44896</v>
       </c>
@@ -4271,7 +4270,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
         <v>58</v>
       </c>
@@ -4289,7 +4288,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44927</v>
       </c>
@@ -4315,7 +4314,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>62</v>
@@ -4337,7 +4336,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44958</v>
       </c>
@@ -4363,7 +4362,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44986</v>
       </c>
@@ -4383,7 +4382,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>45017</v>
       </c>
@@ -4403,20 +4402,22 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>45047</v>
       </c>
       <c r="B67" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C67" s="13"/>
+      <c r="C67" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D67" s="39"/>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G67" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H67" s="39">
         <v>1</v>
@@ -4427,11 +4428,13 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>45078</v>
       </c>
-      <c r="B68" s="20"/>
+      <c r="B68" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C68" s="13"/>
       <c r="D68" s="39"/>
       <c r="E68" s="9"/>
@@ -4440,16 +4443,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H68" s="39"/>
+      <c r="H68" s="39">
+        <v>1</v>
+      </c>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="20"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B69" s="20"/>
+      <c r="K68" s="50">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="40"/>
+      <c r="B69" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C69" s="13"/>
       <c r="D69" s="39"/>
       <c r="E69" s="9"/>
@@ -4458,14 +4465,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H69" s="39"/>
+      <c r="H69" s="39">
+        <v>1</v>
+      </c>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="20"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="50">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4481,9 +4492,9 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4499,9 +4510,9 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4517,9 +4528,9 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4535,9 +4546,9 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4553,9 +4564,9 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4571,9 +4582,9 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4589,9 +4600,9 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4607,9 +4618,9 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4625,9 +4636,9 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4643,9 +4654,9 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4661,9 +4672,9 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4679,9 +4690,9 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4697,9 +4708,9 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4715,9 +4726,9 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4733,8 +4744,10 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="40">
+        <v>45566</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -4749,7 +4762,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4765,7 +4778,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4781,7 +4794,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4797,7 +4810,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4813,7 +4826,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4829,7 +4842,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4845,7 +4858,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4861,7 +4874,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4877,7 +4890,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4893,7 +4906,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4909,7 +4922,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4925,7 +4938,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4941,7 +4954,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4957,7 +4970,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4973,7 +4986,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4989,7 +5002,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5005,7 +5018,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5021,7 +5034,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5037,7 +5050,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5053,7 +5066,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5069,7 +5082,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5085,7 +5098,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5101,7 +5114,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5117,7 +5130,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5133,7 +5146,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5149,7 +5162,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5165,7 +5178,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5181,7 +5194,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5197,7 +5210,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5213,7 +5226,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5229,7 +5242,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5245,7 +5258,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5261,7 +5274,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5277,7 +5290,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5293,7 +5306,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5309,7 +5322,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5325,7 +5338,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5341,7 +5354,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5357,7 +5370,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5373,7 +5386,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5389,7 +5402,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5405,7 +5418,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5421,7 +5434,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5437,7 +5450,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5453,7 +5466,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5469,7 +5482,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5485,7 +5498,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5501,7 +5514,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5517,7 +5530,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5533,7 +5546,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5549,7 +5562,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5565,21 +5578,37 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" s="41"/>
-      <c r="B137" s="15"/>
-      <c r="C137" s="42"/>
-      <c r="D137" s="43"/>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="40"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="39"/>
       <c r="E137" s="9"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H137" s="43"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="39"/>
       <c r="I137" s="9"/>
-      <c r="J137" s="12"/>
-      <c r="K137" s="15"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="20"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="41"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="42"/>
+      <c r="D138" s="43"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H138" s="43"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5596,10 +5625,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5622,7 +5651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -5630,21 +5659,21 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -5657,7 +5686,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5686,7 +5715,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -5706,17 +5735,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5737,7 +5766,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5764,7 +5793,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5790,7 +5819,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5816,7 +5845,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5842,7 +5871,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5868,7 +5897,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5894,7 +5923,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5920,7 +5949,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5946,7 +5975,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5966,7 +5995,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5986,7 +6015,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6006,7 +6035,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6027,7 +6056,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6048,7 +6077,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6069,7 +6098,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6090,7 +6119,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6111,7 +6140,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6132,7 +6161,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6153,7 +6182,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6174,7 +6203,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6195,7 +6224,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6216,7 +6245,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6237,7 +6266,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6258,7 +6287,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6279,7 +6308,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6300,7 +6329,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6321,7 +6350,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6342,7 +6371,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6363,7 +6392,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6384,7 +6413,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6405,7 +6434,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6426,7 +6455,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6435,7 +6464,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6444,7 +6473,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6453,7 +6482,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6462,7 +6491,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6471,7 +6500,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6480,7 +6509,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6489,7 +6518,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6498,7 +6527,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6507,7 +6536,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6516,7 +6545,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6525,7 +6554,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6534,7 +6563,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6543,7 +6572,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6552,7 +6581,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6561,7 +6590,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6570,7 +6599,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6579,7 +6608,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6588,7 +6617,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6597,7 +6626,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6606,7 +6635,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6615,7 +6644,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6624,7 +6653,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6633,7 +6662,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6642,7 +6671,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6651,7 +6680,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6660,7 +6689,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6669,7 +6698,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6678,7 +6707,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6687,7 +6716,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/DOGELIO, RONNEL.xlsx
+++ b/REGULAR/OJT/DOGELIO, RONNEL.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
   <si>
     <t>PERIOD</t>
   </si>
@@ -229,6 +229,12 @@
   </si>
   <si>
     <t>12/9,12/2022</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>07/5-7/2023</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1103,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1140,7 +1146,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1204,7 +1210,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1264,7 +1270,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1330,7 +1336,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1393,7 +1399,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1491,7 +1497,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,7 +1556,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1615,7 +1621,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1658,7 +1664,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1733,7 +1739,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1919,7 +1925,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1985,7 +1991,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2043,7 +2049,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2109,7 +2115,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2165,7 +2171,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2240,7 +2246,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2283,7 +2289,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2349,7 +2355,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2405,7 +2411,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2503,7 +2509,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2566,7 +2572,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3015,7 +3021,7 @@
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane ySplit="1725" topLeftCell="A51" activePane="bottomLeft"/>
       <selection activeCell="E4" sqref="E4"/>
-      <selection pane="bottomLeft" activeCell="K69" sqref="K69"/>
+      <selection pane="bottomLeft" activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3172,7 +3178,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>37.25</v>
+        <v>38.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3182,7 +3188,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>48.25</v>
+        <v>46.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4435,13 +4441,15 @@
       <c r="B68" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C68" s="13"/>
+      <c r="C68" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D68" s="39"/>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G68" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H68" s="39">
         <v>1</v>
@@ -4478,7 +4486,9 @@
       <c r="A70" s="40">
         <v>45108</v>
       </c>
-      <c r="B70" s="20"/>
+      <c r="B70" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C70" s="13"/>
       <c r="D70" s="39"/>
       <c r="E70" s="9"/>
@@ -4487,10 +4497,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H70" s="39"/>
+      <c r="H70" s="39">
+        <v>3</v>
+      </c>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="20"/>
+      <c r="K70" s="20" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
